--- a/data/trans_dic/P39A5_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P39A5_2023-Clase-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.8946079528880436</v>
+        <v>0.8946079528880437</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.885753381673689</v>
+        <v>0.8857533816736889</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.8904272558350969</v>
+        <v>0.8904272558350967</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8645304144571866</v>
+        <v>0.8647209019788465</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8593910918960904</v>
+        <v>0.855329720625989</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8685673334746969</v>
+        <v>0.8709705545161938</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.920221474920793</v>
+        <v>0.9178169108058553</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9096235309911774</v>
+        <v>0.9091628993475188</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9074059805988554</v>
+        <v>0.9069965997012286</v>
       </c>
     </row>
     <row r="7">
@@ -622,7 +622,7 @@
         <v>0.9045770934671075</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.86025991355253</v>
+        <v>0.8602599135525302</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.8840834585632487</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8738097597613151</v>
+        <v>0.8754967047800302</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8254853108858362</v>
+        <v>0.8251203784287771</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.86359726820521</v>
+        <v>0.8615768755536218</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9267349213663405</v>
+        <v>0.9284880901603373</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8873205553730846</v>
+        <v>0.8907492022269285</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9044429839767101</v>
+        <v>0.9040224043658253</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.8649952422762257</v>
+        <v>0.8649952422762258</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.8445301761040257</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8292724947962024</v>
+        <v>0.8291351925742633</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7968183169370414</v>
+        <v>0.7892071689278175</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.830140450244617</v>
+        <v>0.8268048077627745</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8975840508865456</v>
+        <v>0.89659432793084</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8844275614470029</v>
+        <v>0.8798367107609073</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8868856679799649</v>
+        <v>0.8842747691527701</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.8507378811055265</v>
+        <v>0.8507378811055266</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.8439651629525564</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.8477635863924776</v>
+        <v>0.8477635863924775</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8246797903779534</v>
+        <v>0.8281444339270124</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8222708218234801</v>
+        <v>0.8197162698363033</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.832333358566634</v>
+        <v>0.8307790035139688</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8729245623846277</v>
+        <v>0.8714567231855352</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8648767806655925</v>
+        <v>0.8653027683593827</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8641058986238812</v>
+        <v>0.8635298970907921</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.83050612972191</v>
+        <v>0.8305061297219102</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.8358224692347046</v>
+        <v>0.8358224692347045</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.8337314444473418</v>
+        <v>0.8337314444473417</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7886163997498109</v>
+        <v>0.792397713138642</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8111042366892663</v>
+        <v>0.8118604995813987</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8125867855404859</v>
+        <v>0.8108358747285158</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8641101015131709</v>
+        <v>0.8680275946952092</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8575310615826424</v>
+        <v>0.8571102628121718</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8521449575003651</v>
+        <v>0.8518200365413667</v>
       </c>
     </row>
     <row r="19">
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.8796324028715412</v>
+        <v>0.8796324028715413</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.8876178786347206</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.7820226918242853</v>
+        <v>0.797955983655269</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.8606513622497654</v>
+        <v>0.864415140645949</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.8593644677832606</v>
+        <v>0.8606110854298207</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9348705550835791</v>
+        <v>0.9414410704061733</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9087448499501793</v>
+        <v>0.9105312773689838</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9057308834476786</v>
+        <v>0.9062470366952947</v>
       </c>
     </row>
     <row r="22">
@@ -894,7 +894,7 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.8668945858776375</v>
+        <v>0.8668945858776373</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>0.8598366818835816</v>
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8527313461921445</v>
+        <v>0.85266078710341</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8494257200499388</v>
+        <v>0.84889432561718</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8541569038417527</v>
+        <v>0.8542418983490061</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8790585536353326</v>
+        <v>0.8786061467464179</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8702006714149558</v>
+        <v>0.8703277469223697</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8716437235729717</v>
+        <v>0.8712515187767675</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>456584</v>
+        <v>456684</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>405978</v>
+        <v>404059</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>869028</v>
+        <v>871432</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>485996</v>
+        <v>484726</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>429708</v>
+        <v>429490</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>907887</v>
+        <v>907477</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>405588</v>
+        <v>406371</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>329601</v>
+        <v>329456</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>745666</v>
+        <v>743922</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>430153</v>
+        <v>430967</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>354291</v>
+        <v>355660</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>780934</v>
+        <v>780571</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>365164</v>
+        <v>365104</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>139831</v>
+        <v>138496</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>511226</v>
+        <v>509172</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>395245</v>
+        <v>394809</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>155206</v>
+        <v>154400</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>546172</v>
+        <v>544564</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>860548</v>
+        <v>864164</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>671870</v>
+        <v>669783</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1548627</v>
+        <v>1545735</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>910892</v>
+        <v>909360</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>706683</v>
+        <v>707031</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1607742</v>
+        <v>1606671</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>367734</v>
+        <v>369497</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>583388</v>
+        <v>583932</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>963366</v>
+        <v>961290</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>402937</v>
+        <v>404764</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>616781</v>
+        <v>616478</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1010264</v>
+        <v>1009879</v>
       </c>
     </row>
     <row r="24">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>155750</v>
+        <v>158923</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>635539</v>
+        <v>638319</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>805743</v>
+        <v>806912</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>186192</v>
+        <v>187500</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>671054</v>
+        <v>672373</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>849216</v>
+        <v>849700</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2678933</v>
+        <v>2678711</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>2821754</v>
+        <v>2819989</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>5520882</v>
+        <v>5521431</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>2761642</v>
+        <v>2760221</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>2890767</v>
+        <v>2891190</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>5633908</v>
+        <v>5631373</v>
       </c>
     </row>
     <row r="32">
